--- a/data/register2.xlsx
+++ b/data/register2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zehra\Desktop\tobeto-test-homework\Tobeto_Test_Demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DD0E16-C05B-4C22-99CA-BE202352EB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE866269-AD67-4113-AEB4-EAC86D295D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4728" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>passwordAgain</t>
-  </si>
-  <si>
     <t>Zehra</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>softwaretestdemotobeto@gmail.com</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444 555 66 77</t>
   </si>
 </sst>
 </file>
@@ -84,9 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,20 +366,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,27 +390,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12345678</v>
       </c>
     </row>
   </sheetData>
